--- a/Clean-700.xlsx
+++ b/Clean-700.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,10 +405,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.627268411413413E-07</v>
+        <v>1.571911909138754E-07</v>
       </c>
       <c r="D2">
-        <v>1.505313916220289E-05</v>
+        <v>9.006391816000231E-06</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -419,10 +419,10 @@
         <v>0.009999999776482582</v>
       </c>
       <c r="C3">
-        <v>2.153622919840348E-07</v>
+        <v>1.299227263971939E-07</v>
       </c>
       <c r="D3">
-        <v>1.233935039694931E-05</v>
+        <v>7.444023885392145E-06</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -433,10 +433,10 @@
         <v>0.01999999955296516</v>
       </c>
       <c r="C4">
-        <v>1.698749398911724E-07</v>
+        <v>1.036146882855916E-07</v>
       </c>
       <c r="D4">
-        <v>9.733117100802724E-06</v>
+        <v>5.936684334328012E-06</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -447,10 +447,10 @@
         <v>0.0350000001490116</v>
       </c>
       <c r="C5">
-        <v>1.052168891246884E-07</v>
+        <v>6.598195134927334E-08</v>
       </c>
       <c r="D5">
-        <v>6.028483680340573E-06</v>
+        <v>3.78048733635089E-06</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -461,10 +461,10 @@
         <v>0.05750000104308128</v>
       </c>
       <c r="C6">
-        <v>1.637160954514553E-08</v>
+        <v>1.378564317029967E-08</v>
       </c>
       <c r="D6">
-        <v>9.380241307729322E-07</v>
+        <v>7.898591715315191E-07</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -475,10 +475,10 @@
         <v>0.09125000238418579</v>
       </c>
       <c r="C7">
-        <v>-9.830623811990296E-08</v>
+        <v>-5.462443067918423E-08</v>
       </c>
       <c r="D7">
-        <v>-5.632532544078529E-06</v>
+        <v>-3.12974933622219E-06</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -489,10 +489,10 @@
         <v>0.1412499994039536</v>
       </c>
       <c r="C8">
-        <v>-2.25845064909724E-07</v>
+        <v>-1.328525135804726E-07</v>
       </c>
       <c r="D8">
-        <v>-1.293996904318531E-05</v>
+        <v>-7.611888325865531E-06</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -503,10 +503,10 @@
         <v>0.1912499964237213</v>
       </c>
       <c r="C9">
-        <v>-3.010843083690656E-07</v>
+        <v>-1.815693123986871E-07</v>
       </c>
       <c r="D9">
-        <v>-1.725086014716287E-05</v>
+        <v>-1.040315528953714E-05</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -517,10 +517,10 @@
         <v>0.2412499934434891</v>
       </c>
       <c r="C10">
-        <v>-3.216665582302276E-07</v>
+        <v>-1.983301053752997E-07</v>
       </c>
       <c r="D10">
-        <v>-1.843013619709118E-05</v>
+        <v>-1.136347798838955E-05</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -531,10 +531,10 @@
         <v>0.2912499904632568</v>
       </c>
       <c r="C11">
-        <v>-2.852635080574303E-07</v>
+        <v>-1.805737554300092E-07</v>
       </c>
       <c r="D11">
-        <v>-1.634439506078691E-05</v>
+        <v>-1.034611407696706E-05</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -545,10 +545,10 @@
         <v>0.3412500023841857</v>
       </c>
       <c r="C12">
-        <v>-1.890734751795482E-07</v>
+        <v>-1.253410015986112E-07</v>
       </c>
       <c r="D12">
-        <v>-1.083311214565963E-05</v>
+        <v>-7.181510391542924E-06</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -559,10 +559,10 @@
         <v>0.3912500143051147</v>
       </c>
       <c r="C13">
-        <v>-3.036841447995146E-08</v>
+        <v>-2.936288512681018E-08</v>
       </c>
       <c r="D13">
-        <v>-1.739981980205196E-06</v>
+        <v>-1.68236939209368E-06</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -573,10 +573,10 @@
         <v>0.4412499964237213</v>
       </c>
       <c r="C14">
-        <v>1.938630425136513E-07</v>
+        <v>1.119194510176141E-07</v>
       </c>
       <c r="D14">
-        <v>1.110753413959747E-05</v>
+        <v>6.412512188730437E-06</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -587,10 +587,10 @@
         <v>0.4912500083446503</v>
       </c>
       <c r="C15">
-        <v>4.881919531416271E-07</v>
+        <v>3.202383530524072E-07</v>
       </c>
       <c r="D15">
-        <v>2.797133850726368E-05</v>
+        <v>1.834830606812334E-05</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -601,10 +601,10 @@
         <v>0.5412499904632568</v>
       </c>
       <c r="C16">
-        <v>8.527038729369031E-07</v>
+        <v>5.920222649650423E-07</v>
       </c>
       <c r="D16">
-        <v>4.885633309374416E-05</v>
+        <v>3.392037716027267E-05</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -615,10 +615,10 @@
         <v>0.5912500023841858</v>
       </c>
       <c r="C17">
-        <v>1.323052750166337E-06</v>
+        <v>6.285598300841133E-06</v>
       </c>
       <c r="D17">
-        <v>7.580533865770763E-05</v>
+        <v>0.0003601382543527985</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -629,10 +629,10 @@
         <v>0.6037499904632568</v>
       </c>
       <c r="C18">
-        <v>1.812229961798209E-06</v>
+        <v>1.773052730753193E-05</v>
       </c>
       <c r="D18">
-        <v>0.0001038331283181918</v>
+        <v>0.001015884383263035</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -643,10 +643,10 @@
         <v>0.6162499785423279</v>
       </c>
       <c r="C19">
-        <v>2.358683511768933E-06</v>
+        <v>3.132390107853924E-05</v>
       </c>
       <c r="D19">
-        <v>0.0001351426104314555</v>
+        <v>0.001794727329685586</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -657,10 +657,10 @@
         <v>0.6349999904632568</v>
       </c>
       <c r="C20">
-        <v>3.259055084645426E-06</v>
+        <v>5.425331049057703E-05</v>
       </c>
       <c r="D20">
-        <v>0.0001867301015508342</v>
+        <v>0.003108485715722897</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -671,10 +671,164 @@
         <v>0.6631249785423279</v>
       </c>
       <c r="C21">
-        <v>4.790622839506709E-06</v>
+        <v>9.36584243808351E-05</v>
       </c>
       <c r="D21">
-        <v>0.0002744824699427127</v>
+        <v>0.005366232432867021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.7053124904632568</v>
+      </c>
+      <c r="C22">
+        <v>0.0001630195888572923</v>
+      </c>
+      <c r="D22">
+        <v>0.009340334419480751</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.7553125023841859</v>
+      </c>
+      <c r="C23">
+        <v>0.0002596816107679188</v>
+      </c>
+      <c r="D23">
+        <v>0.01487866031416074</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.8053125143051147</v>
+      </c>
+      <c r="C24">
+        <v>0.0003707938009156349</v>
+      </c>
+      <c r="D24">
+        <v>0.02124491986207996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.8553125262260437</v>
+      </c>
+      <c r="C25">
+        <v>0.0004957514981188725</v>
+      </c>
+      <c r="D25">
+        <v>0.02840446852949917</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.905312478542328</v>
+      </c>
+      <c r="C26">
+        <v>0.0006343526426979057</v>
+      </c>
+      <c r="D26">
+        <v>0.03634572914956029</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.9178125262260435</v>
+      </c>
+      <c r="C27">
+        <v>0.0006711270636934126</v>
+      </c>
+      <c r="D27">
+        <v>0.03845274826664013</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.936562478542328</v>
+      </c>
+      <c r="C28">
+        <v>0.0007278511798588455</v>
+      </c>
+      <c r="D28">
+        <v>0.04170280071952924</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.9646875262260435</v>
+      </c>
+      <c r="C29">
+        <v>0.000816437073289144</v>
+      </c>
+      <c r="D29">
+        <v>0.04677839853748103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.9752343893051149</v>
+      </c>
+      <c r="C30">
+        <v>0.0008507903670774502</v>
+      </c>
+      <c r="D30">
+        <v>0.04874669728392396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.9910547137260435</v>
+      </c>
+      <c r="C31">
+        <v>0.0009047454530847219</v>
+      </c>
+      <c r="D31">
+        <v>0.05183809599540599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1.014785170555115</v>
+      </c>
+      <c r="C32">
+        <v>0.0009910571871154504</v>
+      </c>
+      <c r="D32">
+        <v>0.05678339407782242</v>
       </c>
     </row>
   </sheetData>
